--- a/spreadsheet/FiiToSearch.xlsx
+++ b/spreadsheet/FiiToSearch.xlsx
@@ -43,6 +43,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -62,14 +63,15 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="JetBrains Mono"/>
+      <name val="Courier New"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,13 +116,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -144,13 +150,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -184,6 +190,43 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
